--- a/Documentation/Component Glossary.xlsx
+++ b/Documentation/Component Glossary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rishav\Documents\GitHub\12VSB\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E7DB8D-6506-44C5-97A9-1009C3D3DB37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB15DA71-AFCD-4CCB-A36E-53600603FDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{2AE41DF5-7B5A-4E92-9D0C-918A9F32479A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <t>Sl. No.</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>Shielded Drum Core 3R3</t>
+  </si>
+  <si>
+    <t>2.2nF</t>
+  </si>
+  <si>
+    <t>470pF</t>
   </si>
 </sst>
 </file>
@@ -339,14 +345,14 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -664,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6044EE84-06AC-4B0E-95D4-8C23F45A7574}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,14 +684,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -790,7 +796,9 @@
       <c r="D7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -860,7 +868,9 @@
       <c r="D11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1069,7 +1079,7 @@
       <c r="E22" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>50</v>
       </c>
     </row>
